--- a/CISS_rc/apps/rc_self/rc_量化投资研究体系梳理.xlsx
+++ b/CISS_rc/apps/rc_self/rc_量化投资研究体系梳理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zd_zxjtzq\rc_reports_cs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zd_zxjtzq\ciss_web\CISS_rc\apps\rc_self\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C637E060-DC4A-4793-8CDD-52BEC2F70EC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742F04D-EB8E-4FB5-A9CA-C40E7C73F153}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{034C070D-F57F-47DF-93B3-D844F081756E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{034C070D-F57F-47DF-93B3-D844F081756E}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="2" r:id="rId1"/>
@@ -22,17 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>天风证券</t>
   </si>
@@ -75,6 +70,22 @@
   </si>
   <si>
     <t>概要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对量化投研体系、制度进行规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划对研究员和基金经理的模拟组合方案。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,14 +450,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA41CC3-912C-4108-8165-A4972A07DCDF}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -458,7 +496,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -469,19 +507,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19F3E51-065C-45CF-804F-3A693E655146}">
   <dimension ref="A3:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.375" customWidth="1"/>
-    <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="48.44140625" customWidth="1"/>
     <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -504,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20190918</v>
       </c>
